--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -3,24 +3,49 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NipunSharma\Downloads\automation\DataDrivenFramework\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="5400"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>helloe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there </t>
+  </si>
+  <si>
+    <t>ewf23</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>alerttext</t>
+  </si>
+  <si>
+    <t>Customer added successfully</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,14 +361,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>